--- a/eznlp/sequence_tagging/transitions.xlsx
+++ b/eznlp/sequence_tagging/transitions.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="BIO" sheetId="1" r:id="rId1"/>
-    <sheet name="BIOES" sheetId="4" r:id="rId2"/>
+    <sheet name="BIO1" sheetId="5" r:id="rId1"/>
+    <sheet name="BIO2" sheetId="1" r:id="rId2"/>
+    <sheet name="BIOES" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="20">
   <si>
     <t>from_tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,12 +83,20 @@
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>end_of_chunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_of_chunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,11 +301,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -338,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,9 +387,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,6 +422,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -579,27 +598,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickTop="1" thickBot="1">
+    <row r="1" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -610,28 +622,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" thickTop="1">
+        <v>18</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -644,26 +641,11 @@
       <c r="D2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="E2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -676,26 +658,11 @@
       <c r="D3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" thickBot="1">
+      <c r="E3" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -703,31 +670,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" thickTop="1">
+      <c r="E4" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -740,26 +692,11 @@
       <c r="D5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="E5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -772,26 +709,11 @@
       <c r="D6" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" thickBot="1">
+      <c r="E6" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -799,31 +721,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" thickTop="1">
+      <c r="E7" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -836,26 +743,11 @@
       <c r="D8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="E8" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -868,26 +760,11 @@
       <c r="D9" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" thickBot="1">
+      <c r="E9" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -900,26 +777,11 @@
       <c r="D10" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" thickTop="1"/>
+      <c r="E10" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -928,27 +790,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickTop="1" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -959,28 +818,440 @@
         <v>10</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.25" thickTop="1">
+    <row r="2" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -993,7 +1264,7 @@
       <c r="D2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="b">
+      <c r="E2" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="b">
@@ -1003,16 +1274,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1025,7 +1302,7 @@
       <c r="D3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="b">
+      <c r="E3" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F3" s="6" t="b">
@@ -1035,16 +1312,22 @@
         <v>1</v>
       </c>
       <c r="H3" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1057,26 +1340,32 @@
       <c r="D4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="6" t="b">
+      <c r="E4" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1089,7 +1378,7 @@
       <c r="D5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="b">
+      <c r="E5" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="6" t="b">
@@ -1099,16 +1388,22 @@
         <v>1</v>
       </c>
       <c r="H5" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.25" thickBot="1">
+    <row r="6" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1121,7 +1416,7 @@
       <c r="D6" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="9" t="b">
+      <c r="E6" s="10" t="b">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="b">
@@ -1131,16 +1426,22 @@
         <v>1</v>
       </c>
       <c r="H6" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.25" thickTop="1">
+    <row r="7" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1153,11 +1454,11 @@
       <c r="D7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="b">
+      <c r="E7" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>0</v>
@@ -1168,11 +1469,17 @@
       <c r="I7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1185,11 +1492,11 @@
       <c r="D8" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="6" t="b">
+      <c r="E8" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="6" t="b">
         <v>0</v>
@@ -1200,11 +1507,17 @@
       <c r="I8" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1217,26 +1530,32 @@
       <c r="D9" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="6" t="b">
+      <c r="E9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F9" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1249,7 +1568,7 @@
       <c r="D10" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="6" t="b">
+      <c r="E10" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F10" s="6" t="b">
@@ -1259,16 +1578,22 @@
         <v>1</v>
       </c>
       <c r="H10" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.25" thickBot="1">
+    <row r="11" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
@@ -1281,7 +1606,7 @@
       <c r="D11" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="9" t="b">
+      <c r="E11" s="10" t="b">
         <v>1</v>
       </c>
       <c r="F11" s="9" t="b">
@@ -1291,16 +1616,22 @@
         <v>1</v>
       </c>
       <c r="H11" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.25" thickTop="1">
+    <row r="12" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1313,11 +1644,11 @@
       <c r="D12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="b">
+      <c r="E12" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F12" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3" t="b">
         <v>0</v>
@@ -1328,11 +1659,17 @@
       <c r="I12" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1345,11 +1682,11 @@
       <c r="D13" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="6" t="b">
+      <c r="E13" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F13" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="6" t="b">
         <v>0</v>
@@ -1360,11 +1697,17 @@
       <c r="I13" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1377,7 +1720,7 @@
       <c r="D14" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="6" t="b">
+      <c r="E14" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="b">
@@ -1392,11 +1735,17 @@
       <c r="I14" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1409,11 +1758,11 @@
       <c r="D15" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="6" t="b">
+      <c r="E15" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="6" t="b">
         <v>0</v>
@@ -1424,11 +1773,17 @@
       <c r="I15" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.25" thickBot="1">
+    <row r="16" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
@@ -1441,11 +1796,11 @@
       <c r="D16" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="9" t="b">
+      <c r="E16" s="10" t="b">
         <v>0</v>
       </c>
       <c r="F16" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="9" t="b">
         <v>0</v>
@@ -1456,11 +1811,17 @@
       <c r="I16" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.25" thickTop="1">
+    <row r="17" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1473,11 +1834,11 @@
       <c r="D17" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E17" s="3" t="b">
+      <c r="E17" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F17" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3" t="b">
         <v>0</v>
@@ -1488,11 +1849,17 @@
       <c r="I17" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -1505,11 +1872,11 @@
       <c r="D18" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E18" s="6" t="b">
+      <c r="E18" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="6" t="b">
         <v>0</v>
@@ -1520,11 +1887,17 @@
       <c r="I18" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
@@ -1537,26 +1910,32 @@
       <c r="D19" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E19" s="6" t="b">
+      <c r="E19" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F19" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H19" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
@@ -1569,7 +1948,7 @@
       <c r="D20" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="6" t="b">
+      <c r="E20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F20" s="6" t="b">
@@ -1579,16 +1958,22 @@
         <v>1</v>
       </c>
       <c r="H20" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.25" thickBot="1">
+    <row r="21" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
@@ -1601,7 +1986,7 @@
       <c r="D21" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="9" t="b">
+      <c r="E21" s="10" t="b">
         <v>1</v>
       </c>
       <c r="F21" s="9" t="b">
@@ -1611,16 +1996,22 @@
         <v>1</v>
       </c>
       <c r="H21" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.25" thickTop="1">
+    <row r="22" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1633,7 +2024,7 @@
       <c r="D22" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="3" t="b">
+      <c r="E22" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F22" s="3" t="b">
@@ -1643,16 +2034,22 @@
         <v>1</v>
       </c>
       <c r="H22" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
@@ -1665,7 +2062,7 @@
       <c r="D23" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E23" s="6" t="b">
+      <c r="E23" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F23" s="6" t="b">
@@ -1675,16 +2072,22 @@
         <v>1</v>
       </c>
       <c r="H23" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
@@ -1697,26 +2100,32 @@
       <c r="D24" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E24" s="6" t="b">
+      <c r="E24" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F24" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H24" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>16</v>
       </c>
@@ -1729,7 +2138,7 @@
       <c r="D25" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E25" s="6" t="b">
+      <c r="E25" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F25" s="6" t="b">
@@ -1739,16 +2148,22 @@
         <v>1</v>
       </c>
       <c r="H25" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.25" thickBot="1">
+    <row r="26" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>17</v>
       </c>
@@ -1761,7 +2176,7 @@
       <c r="D26" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E26" s="9" t="b">
+      <c r="E26" s="10" t="b">
         <v>1</v>
       </c>
       <c r="F26" s="9" t="b">
@@ -1771,16 +2186,22 @@
         <v>1</v>
       </c>
       <c r="H26" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.25" thickTop="1"/>
+    <row r="27" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
